--- a/data/trans_camb/P19C06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.1367446159938822</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.05326837431556646</v>
+        <v>-0.05326837431556637</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.9037244975580345</v>
@@ -655,7 +655,7 @@
         <v>0.4749348428777962</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.274492849898847</v>
+        <v>0.2744928498988472</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.4075521812974905</v>
@@ -664,7 +664,7 @@
         <v>0.3031371281146204</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.1126824552342289</v>
+        <v>0.1126824552342288</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9232072965918232</v>
+        <v>-1.024530247457705</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7204561470789729</v>
+        <v>-0.6334136284562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9832218064131981</v>
+        <v>-0.9390091272981014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2328049703997744</v>
+        <v>-0.1895113434381667</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.6002761341141172</v>
+        <v>-0.6637369155255273</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.720270093465152</v>
+        <v>-0.7553722027933648</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2560115135838797</v>
+        <v>-0.3078511952459109</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.3662473534667493</v>
+        <v>-0.3470621314561166</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.4678696936657488</v>
+        <v>-0.4922075369186428</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5043867442190417</v>
+        <v>0.4824735636452444</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.257628570240407</v>
+        <v>1.417035249807359</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5568450403604654</v>
+        <v>0.5507838373396771</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.408561851657671</v>
+        <v>2.330104256852354</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.649501739819403</v>
+        <v>1.771484305955964</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.099971406048214</v>
+        <v>1.091280766014034</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.197758218037096</v>
+        <v>1.187519491607165</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.207746474196419</v>
+        <v>1.13994296187752</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6916588894816939</v>
+        <v>0.7063366966851988</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3328066994225092</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1296436551502662</v>
+        <v>-0.1296436551502659</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.308394507321037</v>
@@ -760,7 +760,7 @@
         <v>0.6876013004359036</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3974053354501281</v>
+        <v>0.3974053354501284</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.728946367480321</v>
@@ -769,7 +769,7 @@
         <v>0.5421899784319222</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2015434346597149</v>
+        <v>0.2015434346597147</v>
       </c>
     </row>
     <row r="8">
@@ -783,22 +783,22 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.388467823174151</v>
+        <v>-0.3939692339551954</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6597021913918245</v>
+        <v>-0.7006090076266503</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6430332602315449</v>
+        <v>-0.6026084343769973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3942799155387746</v>
+        <v>-0.3883245421826207</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5598647797553095</v>
+        <v>-0.5050993600756744</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5448461644151775</v>
+        <v>-0.5828253481984436</v>
       </c>
     </row>
     <row r="9">
@@ -812,22 +812,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>9.78672373385684</v>
+        <v>11.0080303225858</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.718040393148674</v>
+        <v>9.021880495974218</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.182566308244168</v>
+        <v>4.898920939629089</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>6.4888601947805</v>
+        <v>4.83503584245786</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.91598548765577</v>
+        <v>5.631256331438671</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.882937309369751</v>
+        <v>3.097900901353286</v>
       </c>
     </row>
     <row r="10">
@@ -848,7 +848,7 @@
         <v>-0.3559740717989363</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.4230664208133457</v>
+        <v>-0.4230664208133455</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.03926207617108036</v>
@@ -866,7 +866,7 @@
         <v>-0.4998634404088955</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.342280193375998</v>
+        <v>-0.3422801933759979</v>
       </c>
     </row>
     <row r="11">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.31153191983033</v>
+        <v>-1.394457210493557</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.595400428738928</v>
+        <v>-1.671920837694854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.668026657101247</v>
+        <v>-1.63593788837703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.343036969561682</v>
+        <v>-1.228203941550101</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.747853260219273</v>
+        <v>-1.754882343697516</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.438170408989997</v>
+        <v>-1.460979000426628</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9897594822133676</v>
+        <v>-0.882046079235033</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.389625332249335</v>
+        <v>-1.355921341028029</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.232075037803403</v>
+        <v>-1.163465144011104</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.375007558323159</v>
+        <v>1.315863137819401</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6803763808749183</v>
+        <v>0.7291150584617277</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7720942791568219</v>
+        <v>0.8159829042645278</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.000830578111189</v>
+        <v>1.037663594631701</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2758955592456683</v>
+        <v>0.2702580021287341</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6634006704074341</v>
+        <v>0.7364065108940112</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8457559761993836</v>
+        <v>0.798028168327105</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2040235071771315</v>
+        <v>0.2073847280720661</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4169150225006001</v>
+        <v>0.3841604148581303</v>
       </c>
     </row>
     <row r="13">
@@ -953,7 +953,7 @@
         <v>-0.2387076353844581</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2836981480492805</v>
+        <v>-0.2836981480492803</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.02944213471236441</v>
@@ -971,7 +971,7 @@
         <v>-0.3549781159087635</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2430703434884309</v>
+        <v>-0.2430703434884307</v>
       </c>
     </row>
     <row r="14">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6438773791005218</v>
+        <v>-0.6325650994598103</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7259083291702423</v>
+        <v>-0.7127647540533839</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7785626869744532</v>
+        <v>-0.7630074033479877</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.659639444431912</v>
+        <v>-0.6185303245784102</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8592777909112617</v>
+        <v>-0.8626690442125232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6724587300960767</v>
+        <v>-0.672581642709242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5083757656263369</v>
+        <v>-0.4912555443153232</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7022111840241166</v>
+        <v>-0.7079431545734902</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6274624419286886</v>
+        <v>-0.6123098980390077</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.503534617441243</v>
+        <v>1.504467333618264</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.018666674730075</v>
+        <v>0.9538940934150095</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9796237060741594</v>
+        <v>1.014807150686646</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.229689700120098</v>
+        <v>1.523652797958763</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4490888276822062</v>
+        <v>0.5848266557774957</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.015701462329815</v>
+        <v>1.188256732331122</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8450830781512548</v>
+        <v>0.8414192021431706</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2792576374336865</v>
+        <v>0.2687617166915632</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4575804664834241</v>
+        <v>0.4486585118567141</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1062,7 @@
         <v>0.9419912767324158</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.2503360150079414</v>
+        <v>-0.2503360150079413</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.2346993382889654</v>
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.243479623206994</v>
+        <v>-1.123111722452603</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4021091347478908</v>
+        <v>-0.4365735442320437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.322773898328507</v>
+        <v>-1.298382086717967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.122097214447952</v>
+        <v>-1.158350788693357</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.911781960645649</v>
+        <v>-1.93100445162451</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.389903505678412</v>
+        <v>-1.571951941801957</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.7768310604172829</v>
+        <v>-0.7633315624289985</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7129769157330057</v>
+        <v>-0.8090233542613678</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.076983682611988</v>
+        <v>-1.01835505684792</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8196769414414069</v>
+        <v>0.9194496306390944</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.615458538567408</v>
+        <v>2.736560201992505</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5752208251451596</v>
+        <v>0.6309494859959527</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.716673767347408</v>
+        <v>1.704381593086257</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5806450675221393</v>
+        <v>0.4456992029829974</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8944223971962428</v>
+        <v>0.8189524500554781</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9578407681391627</v>
+        <v>0.9346484874933358</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.200439540627412</v>
+        <v>1.17804443534308</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4322799547508407</v>
+        <v>0.4516670967329774</v>
       </c>
     </row>
     <row r="19">
@@ -1167,7 +1167,7 @@
         <v>1.060834207664396</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.281918755184236</v>
+        <v>-0.2819187551842359</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1597847290450695</v>
@@ -1196,31 +1196,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8679846295944766</v>
+        <v>-0.7909607283770603</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5209864319423483</v>
+        <v>-0.4684210309409183</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8603929978934706</v>
+        <v>-0.8899272058011858</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5513284937168</v>
+        <v>-0.5591041726356142</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8505241406697064</v>
+        <v>-0.8560716863163854</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6331643325095014</v>
+        <v>-0.6547965762042992</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4899283129787578</v>
+        <v>-0.4714987090472167</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4986257825755265</v>
+        <v>-0.5208336701075714</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6150177514649668</v>
+        <v>-0.6084636079043465</v>
       </c>
     </row>
     <row r="21">
@@ -1231,31 +1231,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.544667466925439</v>
+        <v>3.274625621467142</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.853994793796405</v>
+        <v>8.108586965395107</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.471819968544637</v>
+        <v>2.785575516810376</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.151699165276483</v>
+        <v>2.106942723466764</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.089457974578841</v>
+        <v>0.6730104738357042</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.223642968151632</v>
+        <v>1.123943208917899</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.314680759846737</v>
+        <v>1.265479993581084</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.569359986087391</v>
+        <v>1.452255099161474</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6890195405897871</v>
+        <v>0.6925442056048777</v>
       </c>
     </row>
     <row r="22">
@@ -1276,7 +1276,7 @@
         <v>-0.1043334444055126</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.4800239545329261</v>
+        <v>-0.4800239545329259</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.2926515171218573</v>
@@ -1294,7 +1294,7 @@
         <v>0.7026015778723466</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.1653573207218441</v>
+        <v>-0.1653573207218442</v>
       </c>
     </row>
     <row r="23">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.342510606203584</v>
+        <v>-1.250499718263077</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.333576857966343</v>
+        <v>-1.160461108120684</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.475528681505474</v>
+        <v>-1.524300126363185</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.743753076497202</v>
+        <v>-0.6943064693868397</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1910345884617021</v>
+        <v>0.2095823404607154</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.7294156889632255</v>
+        <v>-0.8013906505369924</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6644589002787791</v>
+        <v>-0.6527848630355898</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.1542258743214764</v>
+        <v>-0.1984164536166423</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.888058818692518</v>
+        <v>-0.7821590130266917</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.906823134563629</v>
+        <v>0.9036434622553454</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.051385396952719</v>
+        <v>1.107537214373723</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4459394911398968</v>
+        <v>0.4398285917424654</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.322415547265753</v>
+        <v>1.329770249999495</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.725332620510942</v>
+        <v>2.755130242708407</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8956357366942558</v>
+        <v>0.9346605875975432</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8223372843590071</v>
+        <v>0.8653949617297099</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.503109975954603</v>
+        <v>1.564650096798183</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4340633523767953</v>
+        <v>0.4700955854503275</v>
       </c>
     </row>
     <row r="25">
@@ -1381,7 +1381,7 @@
         <v>-0.07907174175161802</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3637983044046084</v>
+        <v>-0.3637983044046083</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2993549397747182</v>
@@ -1399,7 +1399,7 @@
         <v>0.6180300210156524</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1454534000767372</v>
+        <v>-0.1454534000767373</v>
       </c>
     </row>
     <row r="26">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6890239694619091</v>
+        <v>-0.6975811972641863</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.68998043373701</v>
+        <v>-0.65593986594801</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7639122349404807</v>
+        <v>-0.7783011450693171</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5530438386793852</v>
+        <v>-0.5070335323804701</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.002886698643374709</v>
+        <v>0.0056354398945189</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4849894080597782</v>
+        <v>-0.5398288315046569</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4614329254309278</v>
+        <v>-0.4479587079688497</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1322018082076823</v>
+        <v>-0.1647651076079411</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5487705250264129</v>
+        <v>-0.5185586655800557</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.618311961393273</v>
+        <v>1.258505891418578</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.522986140872525</v>
+        <v>1.45826243280831</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7428183371319311</v>
+        <v>0.6943953491127848</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.576320540234647</v>
+        <v>2.353595441283035</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5.532020242448409</v>
+        <v>5.425734780462481</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.130368678812006</v>
+        <v>2.157236480003809</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.12871414428588</v>
+        <v>1.169436014584432</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.786665831737087</v>
+        <v>1.991848055429547</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6032180825616744</v>
+        <v>0.626418613017092</v>
       </c>
     </row>
     <row r="28">
@@ -1490,7 +1490,7 @@
         <v>0.08881778725905887</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.3289684625747576</v>
+        <v>-0.3289684625747574</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.305519935882532</v>
@@ -1508,7 +1508,7 @@
         <v>0.1484887351267589</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.177684352982904</v>
+        <v>-0.1776843529829039</v>
       </c>
     </row>
     <row r="29">
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6738016598363871</v>
+        <v>-0.6402937778396119</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5125170531991626</v>
+        <v>-0.5066730274696735</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.8968377386162306</v>
+        <v>-0.8402104179782677</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.2715373183878844</v>
+        <v>-0.2895170495690494</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.3792113138223747</v>
+        <v>-0.4004839615074395</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.5319977486380527</v>
+        <v>-0.541900806934648</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.3177881371854742</v>
+        <v>-0.2828322025497341</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.2888981391059252</v>
+        <v>-0.2906701385710667</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.5519440046374534</v>
+        <v>-0.5209610849845274</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4841239267765829</v>
+        <v>0.4338918745991402</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.747748530951974</v>
+        <v>0.669407464783236</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1745672491501836</v>
+        <v>0.1554441359592744</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8693066546364465</v>
+        <v>0.9102504974324793</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.791112400023037</v>
+        <v>0.769549157032323</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4270653233819087</v>
+        <v>0.4142873322152686</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4926223532286538</v>
+        <v>0.5177730618392936</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5961307634499646</v>
+        <v>0.565917698137017</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1986237807712188</v>
+        <v>0.1967716641761759</v>
       </c>
     </row>
     <row r="31">
@@ -1595,7 +1595,7 @@
         <v>0.0809401462990942</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2997907999095441</v>
+        <v>-0.2997907999095439</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.270253797032418</v>
@@ -1613,7 +1613,7 @@
         <v>0.1331948793621852</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1593834437333079</v>
+        <v>-0.1593834437333077</v>
       </c>
     </row>
     <row r="32">
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4810548808644355</v>
+        <v>-0.4692718491513945</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3565072302761981</v>
+        <v>-0.381388986737021</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6028138081912271</v>
+        <v>-0.5943910313319869</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2223985737197496</v>
+        <v>-0.21622726580414</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2790070159621323</v>
+        <v>-0.2950672652014971</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3723882304635043</v>
+        <v>-0.3730780982326067</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2340198707026509</v>
+        <v>-0.215231469851338</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2308688606839429</v>
+        <v>-0.2251925572667429</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4102690362702021</v>
+        <v>-0.3901540283003052</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1659,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.616866679804204</v>
+        <v>0.5049381497560484</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9681408151450579</v>
+        <v>0.8410247725061278</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3011618664526383</v>
+        <v>0.2024427581812652</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.014282430258189</v>
+        <v>1.066164574250529</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9446225023740317</v>
+        <v>0.9002892270197073</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5137221166038678</v>
+        <v>0.4929690617493439</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.528935794223469</v>
+        <v>0.5490228981262431</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6432471792513476</v>
+        <v>0.6219564086604975</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2373774636318823</v>
+        <v>0.2188715881233819</v>
       </c>
     </row>
     <row r="34">
